--- a/NeilDoc/任译轩暑期作业计划（201907）.xlsx
+++ b/NeilDoc/任译轩暑期作业计划（201907）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="21240" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,8 +459,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -517,7 +517,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,21 +560,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,8 +574,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,37 +631,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,7 +653,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,12 +663,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,6 +704,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -722,175 +878,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,6 +1219,30 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1253,15 +1271,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1277,17 +1286,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1315,27 +1320,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1344,19 +1338,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1365,116 +1359,116 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1485,9 +1479,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1515,21 +1506,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1539,9 +1515,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1563,72 +1536,72 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2054,191 +2027,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="56" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="57" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="49" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="50" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" ht="26.25" customHeight="1" spans="1:3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
     </row>
     <row r="5" ht="14.25"/>
     <row r="6" ht="14.25" spans="1:3">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="59" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="62"/>
     </row>
     <row r="8" ht="27" spans="1:5">
-      <c r="A8" s="70">
+      <c r="A8" s="63">
         <v>1</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="E8" s="73"/>
+      <c r="C8" s="65"/>
+      <c r="E8" s="66"/>
     </row>
     <row r="9" ht="40.5" spans="1:6">
-      <c r="A9" s="70">
+      <c r="A9" s="63">
         <v>2</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73" t="s">
+      <c r="E9" s="66"/>
+      <c r="F9" s="66" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:3">
-      <c r="A10" s="70">
+      <c r="A10" s="63">
         <v>3</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="67" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:5">
-      <c r="A11" s="70">
+      <c r="A11" s="63">
         <v>4</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="73"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" ht="27" spans="1:6">
-      <c r="A12" s="70">
+      <c r="A12" s="63">
         <v>5</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="65"/>
     </row>
     <row r="14" ht="27" spans="1:6">
-      <c r="A14" s="70">
+      <c r="A14" s="63">
         <v>6</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="73"/>
+      <c r="F14" s="66"/>
     </row>
     <row r="15" ht="27" spans="1:3">
-      <c r="A15" s="70">
+      <c r="A15" s="63">
         <v>7</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="67" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:3">
-      <c r="A16" s="70">
+      <c r="A16" s="63">
         <v>8</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="67" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="72"/>
+      <c r="C17" s="65"/>
     </row>
     <row r="18" ht="27" spans="1:3">
-      <c r="A18" s="70">
+      <c r="A18" s="63">
         <v>9</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="70">
+      <c r="A19" s="63">
         <v>10</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="65" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" s="76">
+      <c r="A20" s="69">
         <v>11</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="71" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2276,457 +2249,457 @@
   <sheetData>
     <row r="6" ht="14.25"/>
     <row r="7" ht="40.5" spans="4:11">
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="41" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="4:11">
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" ht="20.25" spans="4:11">
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" ht="40.5" spans="4:11">
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="51"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" ht="40.5" spans="4:11">
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="51"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" ht="20.25" spans="4:11">
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="52" t="s">
+      <c r="J12" s="32"/>
+      <c r="K12" s="45" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" ht="20.25" spans="4:11">
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="39" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="39" t="s">
+      <c r="G13" s="33"/>
+      <c r="H13" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="53"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" ht="20.25" spans="4:11">
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="54" t="s">
+      <c r="K14" s="47" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" ht="21" spans="4:11">
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="45" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="45" t="s">
+      <c r="H15" s="39"/>
+      <c r="I15" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="55"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="17" ht="20.25" spans="4:5">
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="40" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" ht="20.25" spans="3:7">
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="47"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" ht="20.25" spans="3:7">
-      <c r="C20" s="47"/>
-      <c r="D20" s="47" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" ht="20.25" spans="3:7">
-      <c r="C21" s="47"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" ht="20.25" spans="3:7">
-      <c r="C22" s="47"/>
-      <c r="D22" s="47" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47" t="s">
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" ht="20.25" spans="3:7">
-      <c r="C23" s="47"/>
-      <c r="D23" s="47" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" ht="20.25" spans="3:7">
-      <c r="C24" s="47"/>
-      <c r="D24" s="47" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" ht="20.25" spans="3:7">
-      <c r="C25" s="47"/>
-      <c r="D25" s="47" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" ht="20.25" spans="3:7">
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" ht="20.25" spans="3:7">
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
     </row>
     <row r="28" ht="20.25" spans="3:7">
-      <c r="C28" s="47"/>
-      <c r="D28" s="47" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" ht="20.25" spans="3:7">
-      <c r="C29" s="47"/>
-      <c r="D29" s="47" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" ht="20.25" spans="3:7">
-      <c r="C30" s="47"/>
-      <c r="D30" s="47" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47" t="s">
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" ht="20.25" spans="3:7">
-      <c r="C31" s="47"/>
-      <c r="D31" s="47" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47" t="s">
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="3:7">
-      <c r="C32" s="47"/>
-      <c r="D32" s="47" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" ht="20.25" spans="3:7">
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
     </row>
     <row r="34" ht="20.25" spans="3:7">
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" ht="20.25" spans="3:7">
-      <c r="C35" s="47"/>
-      <c r="D35" s="47" t="s">
+      <c r="C35" s="40"/>
+      <c r="D35" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47" t="s">
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" ht="20.25" spans="3:7">
-      <c r="C36" s="47"/>
-      <c r="D36" s="47" t="s">
+      <c r="C36" s="40"/>
+      <c r="D36" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47" t="s">
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" ht="20.25" spans="3:7">
-      <c r="C37" s="47"/>
-      <c r="D37" s="47" t="s">
+      <c r="C37" s="40"/>
+      <c r="D37" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47" t="s">
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" ht="20.25" spans="3:7">
-      <c r="C38" s="47"/>
-      <c r="D38" s="47" t="s">
+      <c r="C38" s="40"/>
+      <c r="D38" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" ht="20.25" spans="3:7">
-      <c r="C39" s="47"/>
-      <c r="D39" s="47" t="s">
+      <c r="C39" s="40"/>
+      <c r="D39" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47" t="s">
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="40" ht="20.25" spans="3:7">
-      <c r="C40" s="47"/>
-      <c r="D40" s="47" t="s">
+      <c r="C40" s="40"/>
+      <c r="D40" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47" t="s">
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="41" ht="20.25" spans="3:7">
-      <c r="C41" s="47"/>
-      <c r="D41" s="47" t="s">
+      <c r="C41" s="40"/>
+      <c r="D41" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47" t="s">
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2752,8 +2725,8 @@
   <sheetPr/>
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2777,1736 +2750,1725 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" hidden="1" customHeight="1" spans="1:17">
+    <row r="1" ht="210" customHeight="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="4" ht="15" spans="3:17">
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="23" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" ht="37" customHeight="1" spans="3:17">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" ht="37" customHeight="1" spans="3:17">
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.291666666666667</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11">
+      <c r="H6" s="9"/>
+      <c r="I6" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11">
+      <c r="K6" s="9"/>
+      <c r="L6" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11">
+      <c r="N6" s="9"/>
+      <c r="O6" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="Q6" s="27"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" ht="37" customHeight="1" spans="3:17">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11" t="s">
+      <c r="N7" s="9"/>
+      <c r="O7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="Q7" s="27"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" ht="37" customHeight="1" spans="3:17">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14" t="s">
+      <c r="K8" s="12"/>
+      <c r="L8" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13" t="s">
+      <c r="N8" s="12"/>
+      <c r="O8" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="Q8" s="28"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" ht="37" customHeight="1" spans="3:17">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="14" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="14" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10" t="s">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Q9" s="27"/>
+      <c r="Q9" s="20"/>
     </row>
     <row r="10" ht="37" customHeight="1" spans="3:17">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="10" t="s">
+      <c r="N10" s="12"/>
+      <c r="O10" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="Q10" s="28"/>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" ht="37" customHeight="1" spans="3:17">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="12"/>
+      <c r="O11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="Q11" s="28"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" ht="37" customHeight="1" spans="3:17">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13" t="s">
+      <c r="N12" s="12"/>
+      <c r="O12" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="Q12" s="28"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" ht="37" customHeight="1" spans="3:17">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="28"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="22" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22" t="s">
+      <c r="K14" s="15"/>
+      <c r="L14" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="22" t="s">
+      <c r="N14" s="14"/>
+      <c r="O14" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P14" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="Q14" s="29"/>
+      <c r="Q14" s="22"/>
     </row>
     <row r="15" ht="37" customHeight="1" spans="3:17">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16" ht="37" customHeight="1" spans="3:17">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="4"/>
     </row>
     <row r="17" ht="37" customHeight="1" spans="3:17">
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="23" t="s">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" ht="37" customHeight="1" spans="3:17">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="24" t="s">
+      <c r="P18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" s="26" t="s">
+      <c r="Q18" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" ht="37" customHeight="1" spans="3:17">
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>0.291666666666667</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11">
+      <c r="E19" s="9"/>
+      <c r="F19" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11">
+      <c r="H19" s="9"/>
+      <c r="I19" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11">
+      <c r="K19" s="9"/>
+      <c r="L19" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11">
+      <c r="N19" s="9"/>
+      <c r="O19" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="Q19" s="27"/>
+      <c r="Q19" s="20"/>
     </row>
     <row r="20" ht="37" customHeight="1" spans="3:17">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11" t="s">
+      <c r="H20" s="9"/>
+      <c r="I20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11" t="s">
+      <c r="K20" s="9"/>
+      <c r="L20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11" t="s">
+      <c r="N20" s="9"/>
+      <c r="O20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P20" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="Q20" s="27"/>
+      <c r="Q20" s="20"/>
     </row>
     <row r="21" ht="37" customHeight="1" spans="3:17">
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14" t="s">
+      <c r="K21" s="12"/>
+      <c r="L21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13" t="s">
+      <c r="N21" s="12"/>
+      <c r="O21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="Q21" s="28"/>
+      <c r="Q21" s="21"/>
     </row>
     <row r="22" ht="37" customHeight="1" spans="3:17">
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="14" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="14" t="s">
+      <c r="K22" s="9"/>
+      <c r="L22" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10" t="s">
+      <c r="N22" s="9"/>
+      <c r="O22" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="P22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="27"/>
+      <c r="Q22" s="20"/>
     </row>
     <row r="23" ht="37" customHeight="1" spans="3:17">
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10" t="s">
+      <c r="K23" s="9"/>
+      <c r="L23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="10" t="s">
+      <c r="N23" s="12"/>
+      <c r="O23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="P23" s="10" t="s">
+      <c r="P23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="Q23" s="28"/>
+      <c r="Q23" s="21"/>
     </row>
     <row r="24" ht="37" customHeight="1" spans="3:17">
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13" t="s">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10" t="s">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="10" t="s">
+      <c r="N24" s="12"/>
+      <c r="O24" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="P24" s="10" t="s">
+      <c r="P24" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="Q24" s="28"/>
+      <c r="Q24" s="21"/>
     </row>
     <row r="25" ht="37" customHeight="1" spans="3:17">
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10" t="s">
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13" t="s">
+      <c r="N25" s="12"/>
+      <c r="O25" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="P25" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="Q25" s="28"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="26" ht="37" customHeight="1" spans="3:17">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="16" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="28"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="21"/>
     </row>
     <row r="27" ht="37" customHeight="1" spans="3:17">
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="22" t="s">
+      <c r="H27" s="14"/>
+      <c r="I27" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22" t="s">
+      <c r="K27" s="15"/>
+      <c r="L27" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="22" t="s">
+      <c r="N27" s="14"/>
+      <c r="O27" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="P27" s="20" t="s">
+      <c r="P27" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="Q27" s="29"/>
+      <c r="Q27" s="22"/>
     </row>
     <row r="28" ht="37" customHeight="1" spans="3:17">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="4"/>
     </row>
     <row r="29" ht="37" customHeight="1" spans="3:17">
-      <c r="C29" s="5"/>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6" t="s">
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="23" t="s">
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="Q29" s="6"/>
+      <c r="Q29" s="5"/>
     </row>
     <row r="30" ht="37" customHeight="1" spans="3:17">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="O30" s="8" t="s">
+      <c r="O30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P30" s="24" t="s">
+      <c r="P30" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Q30" s="26" t="s">
+      <c r="Q30" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" ht="37" customHeight="1" spans="3:17">
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>0.291666666666667</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11">
+      <c r="H31" s="9"/>
+      <c r="I31" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11">
+      <c r="K31" s="9"/>
+      <c r="L31" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="M31" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="11">
+      <c r="N31" s="9"/>
+      <c r="O31" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="P31" s="10" t="s">
+      <c r="P31" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="Q31" s="27"/>
+      <c r="Q31" s="20"/>
     </row>
     <row r="32" ht="37" customHeight="1" spans="3:17">
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="11" t="s">
+      <c r="H32" s="9"/>
+      <c r="I32" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="11" t="s">
+      <c r="K32" s="9"/>
+      <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="11" t="s">
+      <c r="N32" s="9"/>
+      <c r="O32" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="10" t="s">
+      <c r="P32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="Q32" s="27"/>
+      <c r="Q32" s="20"/>
     </row>
     <row r="33" ht="37" customHeight="1" spans="3:17">
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14" t="s">
+      <c r="H33" s="12"/>
+      <c r="I33" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="14" t="s">
+      <c r="K33" s="12"/>
+      <c r="L33" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="M33" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13" t="s">
+      <c r="N33" s="12"/>
+      <c r="O33" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="P33" s="10" t="s">
+      <c r="P33" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="Q33" s="28"/>
+      <c r="Q33" s="21"/>
     </row>
     <row r="34" ht="37" customHeight="1" spans="3:17">
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="14" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="14" t="s">
+      <c r="H34" s="9"/>
+      <c r="I34" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="14" t="s">
+      <c r="K34" s="9"/>
+      <c r="L34" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10" t="s">
+      <c r="N34" s="9"/>
+      <c r="O34" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="P34" s="10" t="s">
+      <c r="P34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Q34" s="27"/>
+      <c r="Q34" s="20"/>
     </row>
     <row r="35" ht="37" customHeight="1" spans="3:17">
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="14" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10" t="s">
+      <c r="H35" s="9"/>
+      <c r="I35" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10" t="s">
+      <c r="K35" s="9"/>
+      <c r="L35" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="M35" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="N35" s="13"/>
-      <c r="O35" s="10" t="s">
+      <c r="N35" s="12"/>
+      <c r="O35" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="P35" s="10" t="s">
+      <c r="P35" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="Q35" s="28"/>
+      <c r="Q35" s="21"/>
     </row>
     <row r="36" ht="37" customHeight="1" spans="3:17">
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="14" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13" t="s">
+      <c r="H36" s="12"/>
+      <c r="I36" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10" t="s">
+      <c r="K36" s="9"/>
+      <c r="L36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="M36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="13"/>
-      <c r="O36" s="10" t="s">
+      <c r="N36" s="12"/>
+      <c r="O36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="P36" s="10" t="s">
+      <c r="P36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="Q36" s="28"/>
+      <c r="Q36" s="21"/>
     </row>
     <row r="37" ht="37" customHeight="1" spans="3:17">
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14" t="s">
+      <c r="E37" s="12"/>
+      <c r="F37" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10" t="s">
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="M37" s="13" t="s">
+      <c r="M37" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13" t="s">
+      <c r="N37" s="12"/>
+      <c r="O37" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="P37" s="13" t="s">
+      <c r="P37" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="Q37" s="28"/>
+      <c r="Q37" s="21"/>
     </row>
     <row r="38" ht="37" customHeight="1" spans="3:17">
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="16" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="28"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="21"/>
     </row>
     <row r="39" ht="37" customHeight="1" spans="3:17">
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22" t="s">
+      <c r="E39" s="15"/>
+      <c r="F39" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="22" t="s">
+      <c r="H39" s="14"/>
+      <c r="I39" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K39" s="21"/>
-      <c r="L39" s="22" t="s">
+      <c r="K39" s="15"/>
+      <c r="L39" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="M39" s="20" t="s">
+      <c r="M39" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="22" t="s">
+      <c r="N39" s="14"/>
+      <c r="O39" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="P39" s="20" t="s">
+      <c r="P39" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="Q39" s="29"/>
+      <c r="Q39" s="22"/>
     </row>
     <row r="40" ht="14.25" spans="3:17">
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="4"/>
     </row>
     <row r="41" ht="14.25" spans="3:17">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="5"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="4"/>
     </row>
     <row r="42" ht="14.25" spans="3:17">
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="4"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C43" s="5"/>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6" t="s">
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6" t="s">
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="23" t="s">
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="Q43" s="6"/>
+      <c r="Q43" s="5"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N44" s="8" t="s">
+      <c r="N44" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="O44" s="8" t="s">
+      <c r="O44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P44" s="24" t="s">
+      <c r="P44" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Q44" s="26" t="s">
+      <c r="Q44" s="19" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>0.291666666666667</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11">
+      <c r="E45" s="9"/>
+      <c r="F45" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="11">
+      <c r="H45" s="9"/>
+      <c r="I45" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="11">
+      <c r="K45" s="9"/>
+      <c r="L45" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="M45" s="10" t="s">
+      <c r="M45" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N45" s="10"/>
-      <c r="O45" s="11">
+      <c r="N45" s="9"/>
+      <c r="O45" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="P45" s="10" t="s">
+      <c r="P45" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="Q45" s="27"/>
+      <c r="Q45" s="20"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="11" t="s">
+      <c r="E46" s="9"/>
+      <c r="F46" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="11" t="s">
+      <c r="H46" s="9"/>
+      <c r="I46" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="11" t="s">
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="M46" s="10" t="s">
+      <c r="M46" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="N46" s="10"/>
-      <c r="O46" s="11" t="s">
+      <c r="N46" s="9"/>
+      <c r="O46" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="P46" s="10" t="s">
+      <c r="P46" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="Q46" s="27"/>
+      <c r="Q46" s="20"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14" t="s">
+      <c r="E47" s="12"/>
+      <c r="F47" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14" t="s">
+      <c r="H47" s="12"/>
+      <c r="I47" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="14" t="s">
+      <c r="K47" s="12"/>
+      <c r="L47" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="M47" s="13" t="s">
+      <c r="M47" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13" t="s">
+      <c r="N47" s="12"/>
+      <c r="O47" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="P47" s="10" t="s">
+      <c r="P47" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="Q47" s="28"/>
+      <c r="Q47" s="21"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="14" t="s">
+      <c r="E48" s="9"/>
+      <c r="F48" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="14" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="14" t="s">
+      <c r="K48" s="9"/>
+      <c r="L48" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M48" s="10" t="s">
+      <c r="M48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10" t="s">
+      <c r="N48" s="9"/>
+      <c r="O48" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="P48" s="10" t="s">
+      <c r="P48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Q48" s="27"/>
+      <c r="Q48" s="20"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="14" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10" t="s">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10" t="s">
+      <c r="K49" s="9"/>
+      <c r="L49" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="M49" s="10" t="s">
+      <c r="M49" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="N49" s="13"/>
-      <c r="O49" s="10" t="s">
+      <c r="N49" s="12"/>
+      <c r="O49" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="P49" s="10" t="s">
+      <c r="P49" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="Q49" s="28"/>
+      <c r="Q49" s="21"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="14" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13" t="s">
+      <c r="H50" s="12"/>
+      <c r="I50" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10" t="s">
+      <c r="K50" s="9"/>
+      <c r="L50" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="M50" s="10" t="s">
+      <c r="M50" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N50" s="13"/>
-      <c r="O50" s="10" t="s">
+      <c r="N50" s="12"/>
+      <c r="O50" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="P50" s="10" t="s">
+      <c r="P50" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="Q50" s="28"/>
+      <c r="Q50" s="21"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10" t="s">
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="M51" s="13" t="s">
+      <c r="M51" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13" t="s">
+      <c r="N51" s="12"/>
+      <c r="O51" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="P51" s="13" t="s">
+      <c r="P51" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="Q51" s="28"/>
+      <c r="Q51" s="21"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="16" t="s">
+      <c r="E52" s="12"/>
+      <c r="F52" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="28"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="21"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="22" t="s">
+      <c r="E53" s="15"/>
+      <c r="F53" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H53" s="20"/>
-      <c r="I53" s="22" t="s">
+      <c r="H53" s="14"/>
+      <c r="I53" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J53" s="20" t="s">
+      <c r="J53" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K53" s="21"/>
-      <c r="L53" s="22" t="s">
+      <c r="K53" s="15"/>
+      <c r="L53" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="M53" s="20" t="s">
+      <c r="M53" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="N53" s="20"/>
-      <c r="O53" s="22" t="s">
+      <c r="N53" s="14"/>
+      <c r="O53" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="P53" s="20" t="s">
+      <c r="P53" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="Q53" s="29"/>
+      <c r="Q53" s="22"/>
     </row>
     <row r="54" ht="14" customHeight="1" spans="16:20">
       <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
       <c r="R54"/>
-      <c r="S54" s="1"/>
       <c r="T54"/>
     </row>
     <row r="55" ht="14" customHeight="1" spans="16:20">
       <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
       <c r="R55"/>
-      <c r="S55" s="1"/>
       <c r="T55"/>
     </row>
     <row r="56" customHeight="1" spans="16:20">
       <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
       <c r="R56"/>
-      <c r="S56" s="1"/>
       <c r="T56"/>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="18:20">
       <c r="R57"/>
-      <c r="S57" s="1"/>
       <c r="T57"/>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="18:20">
       <c r="R58"/>
-      <c r="S58" s="1"/>
       <c r="T58"/>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="18:20">
       <c r="R59"/>
-      <c r="S59" s="1"/>
       <c r="T59"/>
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="18:20">
       <c r="R60"/>
-      <c r="S60" s="1"/>
       <c r="T60"/>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="18:20">
       <c r="R61"/>
-      <c r="S61" s="1"/>
       <c r="T61"/>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="18:20">

--- a/NeilDoc/任译轩暑期作业计划（201907）.xlsx
+++ b/NeilDoc/任译轩暑期作业计划（201907）.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mygithub\MyDocuments\NeilDoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBF1F63-4BCC-48CB-9972-A7D73BCFF1FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12180" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="13080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="2017暑期作业计划" sheetId="2" r:id="rId2"/>
     <sheet name="2019暑期计划" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="174">
   <si>
     <t>除老外对话/网上作业外每天晚饭前必须完成，否则不能吃晚饭！</t>
   </si>
@@ -298,172 +305,456 @@
     <t>6，英语朗读，1~3年级课本，精锐新概念一</t>
   </si>
   <si>
-    <t>计划做到7月底,不用每天都一样,根据内容错开安排计划，以下内容遗漏:
-英语小报一份
-语文,英语练字每天多少写清楚
+    <t>2019.7.8</t>
+  </si>
+  <si>
+    <t>2019.7.9</t>
+  </si>
+  <si>
+    <t>2019.7.10</t>
+  </si>
+  <si>
+    <t>2019.7.11</t>
+  </si>
+  <si>
+    <t>2019.7.12</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>完成情况</t>
+  </si>
+  <si>
+    <t>起床</t>
+  </si>
+  <si>
+    <t>8:30-11:30</t>
+  </si>
+  <si>
+    <t>乐课力英语</t>
+  </si>
+  <si>
+    <t>11:30-13:30</t>
+  </si>
+  <si>
+    <t>午休</t>
+  </si>
+  <si>
+    <t>13:30-14:30</t>
+  </si>
+  <si>
+    <t>乐课力作业</t>
+  </si>
+  <si>
+    <t>14:50-15:30</t>
+  </si>
+  <si>
+    <t>英语，语文练字各2篇</t>
+  </si>
+  <si>
+    <t>14:50-15:50</t>
+  </si>
+  <si>
+    <t>作文</t>
+  </si>
+  <si>
+    <t>14:40-15:30</t>
+  </si>
+  <si>
+    <t>英语/语文练字</t>
+  </si>
+  <si>
+    <t>15:40-16:20</t>
+  </si>
+  <si>
+    <t>妙语短篇4篇</t>
+  </si>
+  <si>
+    <t>16:10-16:50</t>
+  </si>
+  <si>
+    <t>15:30-16:30</t>
+  </si>
+  <si>
+    <t>路上/阅读</t>
+  </si>
+  <si>
+    <t>16:30-16:40</t>
+  </si>
+  <si>
+    <t>英语趣配音</t>
+  </si>
+  <si>
+    <t>16:40-18:10</t>
+  </si>
+  <si>
+    <t>跆拳道</t>
+  </si>
+  <si>
+    <t>16:30-18:00</t>
+  </si>
+  <si>
+    <t>16:40-17:00</t>
+  </si>
+  <si>
+    <t>阅读</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>音标，古诗背诵读古文</t>
+  </si>
+  <si>
+    <t>2019.7.15</t>
+  </si>
+  <si>
+    <t>2019.7.16</t>
+  </si>
+  <si>
+    <t>2019.7.17</t>
+  </si>
+  <si>
+    <t>2019.7.18</t>
+  </si>
+  <si>
+    <t>2019.7.19</t>
+  </si>
+  <si>
+    <t>乐课力数学</t>
+  </si>
+  <si>
+    <t>2019.7.29</t>
+  </si>
+  <si>
+    <t>2019.7.30</t>
+  </si>
+  <si>
+    <t>2019.7.31</t>
+  </si>
+  <si>
+    <t>2019.8.1</t>
+  </si>
+  <si>
+    <t>2019.8.2</t>
+  </si>
+  <si>
+    <t>2019.8.5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.13</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.16</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.19</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.21</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.22</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.8.23</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙语短篇2篇</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文阅读</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学家故事</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:00~9:30</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>跆拳道</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:40~10:20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0:30~11:10</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语小报</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学科学家思维导图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>计划做到7月底,不用每天都一样,根据内容错开安排计划，以下内容遗漏:
+英语小报一份 yes
+语文,英语练字每天多少写清楚   ok
 音标提升放计划里,每天的量要量化
-英语阅读完写一篇读后感
-趣配音八段
-数学家故事阅读,做思维导图
-数学游戏
-科赫雪花图
-语文阅读计划
-语文小报一张,照片一张,视频一份,音频一份,趣配音单一张
-古诗背诵10篇
-古文阅读10篇以上
-写作记叙文一篇
+英语阅读完写一篇读后感         yes
+趣配音八段                    ok
+数学家故事阅读,做思维导图     yes
+数学游戏     yes
+科赫雪花图   yes
+语文阅读计划 yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+语文小报一张,照片一张,视频一份,音频一份,趣配音单一张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+古诗背诵10篇                  ok
+古文阅读10篇以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+写作记叙文一篇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 乐课力数学上课</t>
-  </si>
-  <si>
-    <t>2019.7.8</t>
-  </si>
-  <si>
-    <t>2019.7.9</t>
-  </si>
-  <si>
-    <t>2019.7.10</t>
-  </si>
-  <si>
-    <t>2019.7.11</t>
-  </si>
-  <si>
-    <t>2019.7.12</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>完成情况</t>
-  </si>
-  <si>
-    <t>起床</t>
-  </si>
-  <si>
-    <t>8:30-11:30</t>
-  </si>
-  <si>
-    <t>乐课力英语</t>
-  </si>
-  <si>
-    <t>11:30-13:30</t>
-  </si>
-  <si>
-    <t>午休</t>
-  </si>
-  <si>
-    <t>13:30-14:30</t>
-  </si>
-  <si>
-    <t>乐课力作业</t>
-  </si>
-  <si>
-    <t>14:50-15:30</t>
-  </si>
-  <si>
-    <t>英语，语文练字各2篇</t>
-  </si>
-  <si>
-    <t>14:50-15:50</t>
-  </si>
-  <si>
-    <t>作文</t>
-  </si>
-  <si>
-    <t>14:40-15:30</t>
-  </si>
-  <si>
-    <t>英语/语文练字</t>
-  </si>
-  <si>
-    <t>15:40-16:20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     ok</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>音标练习</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1:20~11:40</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>背古诗
+读古文
+跳绳
+看英语视频/复述</t>
+  </si>
+  <si>
+    <t>背古诗
+读古文
+跳绳
+看英语视频/复述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学一课一练</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>思维导图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙语短篇2篇</t>
+  </si>
+  <si>
+    <t>赫雪花图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小报</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>妙语短篇4篇</t>
-  </si>
-  <si>
-    <t>16:10-16:50</t>
-  </si>
-  <si>
-    <t>15:30-16:30</t>
-  </si>
-  <si>
-    <t>路上/阅读</t>
-  </si>
-  <si>
-    <t>16:30-16:40</t>
-  </si>
-  <si>
-    <t>英语趣配音</t>
-  </si>
-  <si>
-    <t>16:40-18:10</t>
-  </si>
-  <si>
-    <t>跆拳道</t>
-  </si>
-  <si>
-    <t>16:30-18:00</t>
-  </si>
-  <si>
-    <t>16:40-17:00</t>
-  </si>
-  <si>
-    <t>阅读</t>
-  </si>
-  <si>
-    <t>晚上</t>
-  </si>
-  <si>
-    <t>音标，古诗背诵读古文</t>
-  </si>
-  <si>
-    <t>2019.7.15</t>
-  </si>
-  <si>
-    <t>2019.7.16</t>
-  </si>
-  <si>
-    <t>2019.7.17</t>
-  </si>
-  <si>
-    <t>2019.7.18</t>
-  </si>
-  <si>
-    <t>2019.7.19</t>
-  </si>
-  <si>
-    <t>乐课力数学</t>
-  </si>
-  <si>
-    <t>2019.7.29</t>
-  </si>
-  <si>
-    <t>2019.7.30</t>
-  </si>
-  <si>
-    <t>2019.7.31</t>
-  </si>
-  <si>
-    <t>2019.8.1</t>
-  </si>
-  <si>
-    <t>2019.8.2</t>
-  </si>
-  <si>
-    <t>英语读后感</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00~9:30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30~11:10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:20~11:40</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>任译轩的周学习计划</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,151 +800,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,13 +861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,194 +895,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1223,252 +1230,143 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="thick">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
+      <right style="thick">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top style="thick">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1556,29 +1454,17 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1592,41 +1478,11 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1671,62 +1527,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2013,205 +1923,203 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="49" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="5.265625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" style="42" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
-    <row r="2" ht="26.25" customHeight="1" spans="1:3">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="54" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="54" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-    </row>
-    <row r="5" ht="14.25"/>
-    <row r="6" ht="14.25" spans="1:3">
-      <c r="A6" s="57" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="62"/>
-    </row>
-    <row r="8" ht="27" spans="1:5">
-      <c r="A8" s="63">
+      <c r="C7" s="48"/>
+    </row>
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A8" s="49">
         <v>1</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="E8" s="66"/>
-    </row>
-    <row r="9" ht="40.5" spans="1:6">
-      <c r="A9" s="63">
+      <c r="C8" s="51"/>
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="49">
         <v>2</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:3">
-      <c r="A10" s="63">
+    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="49">
         <v>3</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="54" spans="1:5">
-      <c r="A11" s="63">
+    <row r="11" spans="1:6" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
         <v>4</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="66"/>
-    </row>
-    <row r="12" ht="27" spans="1:6">
-      <c r="A12" s="63">
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A12" s="49">
         <v>5</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="68" t="s">
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="65"/>
-    </row>
-    <row r="14" ht="27" spans="1:6">
-      <c r="A14" s="63">
+      <c r="C13" s="51"/>
+    </row>
+    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14" s="49">
         <v>6</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="66"/>
-    </row>
-    <row r="15" ht="27" spans="1:3">
-      <c r="A15" s="63">
+      <c r="F14" s="52"/>
+    </row>
+    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A15" s="49">
         <v>7</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:3">
-      <c r="A16" s="63">
+    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A16" s="49">
         <v>8</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="63"/>
-      <c r="B17" s="68" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="49"/>
+      <c r="B17" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="65"/>
-    </row>
-    <row r="18" ht="27" spans="1:3">
-      <c r="A18" s="63">
+      <c r="C17" s="51"/>
+    </row>
+    <row r="18" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="A18" s="49">
         <v>9</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="63">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="49">
         <v>10</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="51" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" s="69">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="55">
         <v>11</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="57" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2221,34 +2129,32 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C6:K41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C7:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="B3605" workbookViewId="0">
-      <selection activeCell="B3608" sqref="B3608"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="23.875" customWidth="1"/>
-    <col min="7" max="7" width="32.875" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
-    <col min="9" max="9" width="32.875" customWidth="1"/>
-    <col min="10" max="11" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" customWidth="1"/>
+    <col min="5" max="5" width="32.86328125" customWidth="1"/>
+    <col min="6" max="6" width="23.86328125" customWidth="1"/>
+    <col min="7" max="7" width="32.86328125" customWidth="1"/>
+    <col min="8" max="8" width="23.59765625" customWidth="1"/>
+    <col min="9" max="9" width="32.86328125" customWidth="1"/>
+    <col min="10" max="11" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="14.25"/>
-    <row r="7" ht="40.5" spans="4:11">
+    <row r="7" spans="4:11" ht="60.75" x14ac:dyDescent="0.45">
       <c r="D7" s="23" t="s">
         <v>31</v>
       </c>
@@ -2270,11 +2176,11 @@
       <c r="J7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" ht="40.5" spans="4:11">
+    <row r="8" spans="4:11" ht="40.5" x14ac:dyDescent="0.45">
       <c r="D8" s="25" t="s">
         <v>39</v>
       </c>
@@ -2293,10 +2199,10 @@
       <c r="I8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-    </row>
-    <row r="9" ht="20.25" spans="4:11">
+      <c r="J8" s="38"/>
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="4:11" ht="20.25" x14ac:dyDescent="0.45">
       <c r="D9" s="27" t="s">
         <v>41</v>
       </c>
@@ -2322,7 +2228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" ht="40.5" spans="4:11">
+    <row r="10" spans="4:11" ht="40.5" x14ac:dyDescent="0.45">
       <c r="D10" s="27" t="s">
         <v>45</v>
       </c>
@@ -2344,9 +2250,9 @@
       <c r="J10" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="44"/>
-    </row>
-    <row r="11" ht="40.5" spans="4:11">
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="4:11" ht="60.75" x14ac:dyDescent="0.45">
       <c r="D11" s="27" t="s">
         <v>49</v>
       </c>
@@ -2368,750 +2274,750 @@
       <c r="J11" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="44"/>
-    </row>
-    <row r="12" ht="20.25" spans="4:11">
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="4:11" ht="20.25" x14ac:dyDescent="0.45">
       <c r="D12" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="45" t="s">
+      <c r="J12" s="31"/>
+      <c r="K12" s="72" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" ht="20.25" spans="4:11">
+    <row r="13" spans="4:11" ht="20.25" x14ac:dyDescent="0.45">
       <c r="D13" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="32" t="s">
+      <c r="E13" s="77"/>
+      <c r="F13" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="32" t="s">
+      <c r="G13" s="77"/>
+      <c r="H13" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="46"/>
-    </row>
-    <row r="14" ht="20.25" spans="4:11">
-      <c r="D14" s="34" t="s">
+      <c r="I13" s="77"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="73"/>
+    </row>
+    <row r="14" spans="4:11" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D14" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="47" t="s">
+      <c r="K14" s="74" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" ht="21" spans="4:11">
-      <c r="D15" s="37" t="s">
+    <row r="15" spans="4:11" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D15" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="38" t="s">
+      <c r="F15" s="71"/>
+      <c r="G15" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="38" t="s">
+      <c r="H15" s="71"/>
+      <c r="I15" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="48"/>
-    </row>
-    <row r="17" ht="20.25" spans="4:5">
-      <c r="D17" s="40" t="s">
+      <c r="J15" s="71"/>
+      <c r="K15" s="75"/>
+    </row>
+    <row r="17" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="D17" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" ht="20.25" spans="3:7">
-      <c r="C19" s="40" t="s">
+    <row r="19" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C19" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" ht="20.25" spans="3:7">
-      <c r="C20" s="40"/>
-      <c r="D20" s="40" t="s">
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C20" s="36"/>
+      <c r="D20" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40" t="s">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" ht="20.25" spans="3:7">
-      <c r="C21" s="40"/>
-      <c r="D21" s="40" t="s">
+    <row r="21" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" ht="20.25" spans="3:7">
-      <c r="C22" s="40"/>
-      <c r="D22" s="40" t="s">
+    <row r="22" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40" t="s">
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" ht="20.25" spans="3:7">
-      <c r="C23" s="40"/>
-      <c r="D23" s="40" t="s">
+    <row r="23" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" ht="20.25" spans="3:7">
-      <c r="C24" s="40"/>
-      <c r="D24" s="40" t="s">
+    <row r="24" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40" t="s">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" ht="20.25" spans="3:7">
-      <c r="C25" s="40"/>
-      <c r="D25" s="40" t="s">
+    <row r="25" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40" t="s">
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" ht="20.25" spans="3:7">
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" ht="20.25" spans="3:7">
-      <c r="C27" s="40" t="s">
+    <row r="26" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C27" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" ht="20.25" spans="3:7">
-      <c r="C28" s="40"/>
-      <c r="D28" s="40" t="s">
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C28" s="36"/>
+      <c r="D28" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40" t="s">
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" ht="20.25" spans="3:7">
-      <c r="C29" s="40"/>
-      <c r="D29" s="40" t="s">
+    <row r="29" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C29" s="36"/>
+      <c r="D29" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40" t="s">
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" ht="20.25" spans="3:7">
-      <c r="C30" s="40"/>
-      <c r="D30" s="40" t="s">
+    <row r="30" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" ht="20.25" spans="3:7">
-      <c r="C31" s="40"/>
-      <c r="D31" s="40" t="s">
+    <row r="31" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40" t="s">
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" ht="20.25" spans="3:7">
-      <c r="C32" s="40"/>
-      <c r="D32" s="40" t="s">
+    <row r="32" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40" t="s">
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" ht="20.25" spans="3:7">
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-    </row>
-    <row r="34" ht="20.25" spans="3:7">
-      <c r="C34" s="40" t="s">
+    <row r="33" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C34" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-    </row>
-    <row r="35" ht="20.25" spans="3:7">
-      <c r="C35" s="40"/>
-      <c r="D35" s="40" t="s">
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C35" s="36"/>
+      <c r="D35" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40" t="s">
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" ht="20.25" spans="3:7">
-      <c r="C36" s="40"/>
-      <c r="D36" s="40" t="s">
+    <row r="36" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C36" s="36"/>
+      <c r="D36" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40" t="s">
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" ht="20.25" spans="3:7">
-      <c r="C37" s="40"/>
-      <c r="D37" s="40" t="s">
+    <row r="37" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40" t="s">
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" ht="20.25" spans="3:7">
-      <c r="C38" s="40"/>
-      <c r="D38" s="40" t="s">
+    <row r="38" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C38" s="36"/>
+      <c r="D38" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40" t="s">
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" ht="20.25" spans="3:7">
-      <c r="C39" s="40"/>
-      <c r="D39" s="40" t="s">
+    <row r="39" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C39" s="36"/>
+      <c r="D39" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40" t="s">
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" ht="20.25" spans="3:7">
-      <c r="C40" s="40"/>
-      <c r="D40" s="40" t="s">
+    <row r="40" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C40" s="36"/>
+      <c r="D40" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40" t="s">
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" ht="20.25" spans="3:7">
-      <c r="C41" s="40"/>
-      <c r="D41" s="40" t="s">
+    <row r="41" spans="3:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="C41" s="36"/>
+      <c r="D41" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40" t="s">
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:T70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:Q52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="5.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.46484375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.86328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.86328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.59765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.59765625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.86328125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="210" customHeight="1" spans="1:17">
-      <c r="A1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+    <row r="1" spans="1:17" ht="339" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="4" ht="15" spans="3:17">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" ht="37" customHeight="1" spans="3:17">
-      <c r="C5" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>36</v>
       </c>
       <c r="Q5" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="8">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="6" ht="37" customHeight="1" spans="3:17">
-      <c r="C6" s="8">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10">
-        <v>0.291666666666667</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="10">
-        <v>0.291666666666667</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="10">
-        <v>0.291666666666667</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="10">
-        <v>0.291666666666667</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="P6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="1:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="Q6" s="20"/>
-    </row>
-    <row r="7" ht="37" customHeight="1" spans="3:17">
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="1:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Q7" s="20"/>
-    </row>
-    <row r="8" ht="37" customHeight="1" spans="3:17">
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" spans="1:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" ht="37" customHeight="1" spans="3:17">
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" spans="1:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Q9" s="20"/>
-    </row>
-    <row r="10" ht="37" customHeight="1" spans="3:17">
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="Q10" s="21"/>
+    </row>
+    <row r="11" spans="1:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q10" s="21"/>
-    </row>
-    <row r="11" ht="37" customHeight="1" spans="3:17">
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="Q11" s="21"/>
+    </row>
+    <row r="12" spans="1:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q11" s="21"/>
-    </row>
-    <row r="12" ht="37" customHeight="1" spans="3:17">
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="21"/>
+    </row>
+    <row r="13" spans="1:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="P12" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q12" s="21"/>
-    </row>
-    <row r="13" ht="37" customHeight="1" spans="3:17">
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="9"/>
@@ -3124,44 +3030,44 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="21"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
+    <row r="14" spans="1:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="P14" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" ht="37" customHeight="1" spans="3:17">
+    <row r="15" spans="1:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -3178,7 +3084,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" ht="37" customHeight="1" spans="3:17">
+    <row r="16" spans="1:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -3195,348 +3101,348 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" ht="37" customHeight="1" spans="3:17">
+    <row r="17" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" ht="37" customHeight="1" spans="3:17">
-      <c r="C18" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P18" s="17" t="s">
         <v>36</v>
       </c>
       <c r="Q18" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="8">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="19" ht="37" customHeight="1" spans="3:17">
-      <c r="C19" s="8">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10">
-        <v>0.291666666666667</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="10">
-        <v>0.291666666666667</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="10">
-        <v>0.291666666666667</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="10">
-        <v>0.291666666666667</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="P19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="20"/>
+    </row>
+    <row r="20" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="Q19" s="20"/>
-    </row>
-    <row r="20" ht="37" customHeight="1" spans="3:17">
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Q20" s="20"/>
-    </row>
-    <row r="21" ht="37" customHeight="1" spans="3:17">
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="Q21" s="21"/>
+    </row>
+    <row r="22" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="Q21" s="21"/>
-    </row>
-    <row r="22" ht="37" customHeight="1" spans="3:17">
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="Q22" s="20"/>
+    </row>
+    <row r="23" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="20"/>
-    </row>
-    <row r="23" ht="37" customHeight="1" spans="3:17">
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="Q23" s="21"/>
+    </row>
+    <row r="24" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q23" s="21"/>
-    </row>
-    <row r="24" ht="37" customHeight="1" spans="3:17">
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P24" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="P24" s="9" t="s">
+      <c r="Q24" s="21"/>
+    </row>
+    <row r="25" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q24" s="21"/>
-    </row>
-    <row r="25" ht="37" customHeight="1" spans="3:17">
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q25" s="21"/>
+    </row>
+    <row r="26" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="P25" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q25" s="21"/>
-    </row>
-    <row r="26" ht="37" customHeight="1" spans="3:17">
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="9"/>
@@ -3549,44 +3455,44 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="21"/>
     </row>
-    <row r="27" ht="37" customHeight="1" spans="3:17">
+    <row r="27" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M27" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="N27" s="14"/>
       <c r="O27" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="P27" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="Q27" s="22"/>
     </row>
-    <row r="28" ht="37" customHeight="1" spans="3:17">
+    <row r="28" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3603,348 +3509,348 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" ht="37" customHeight="1" spans="3:17">
+    <row r="29" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
       <c r="D29" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" ht="37" customHeight="1" spans="3:17">
+    <row r="30" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P30" s="17" t="s">
         <v>36</v>
       </c>
       <c r="Q30" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="8">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="31" ht="37" customHeight="1" spans="3:17">
-      <c r="C31" s="8">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10">
-        <v>0.291666666666667</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="10">
-        <v>0.291666666666667</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="10">
-        <v>0.291666666666667</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N31" s="9"/>
       <c r="O31" s="10">
-        <v>0.291666666666667</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="P31" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q31" s="20"/>
+    </row>
+    <row r="32" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="Q31" s="20"/>
-    </row>
-    <row r="32" ht="37" customHeight="1" spans="3:17">
-      <c r="C32" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="D32" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N32" s="9"/>
       <c r="O32" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q32" s="20"/>
     </row>
-    <row r="33" ht="37" customHeight="1" spans="3:17">
+    <row r="33" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M33" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="P33" s="9" t="s">
+      <c r="Q33" s="21"/>
+    </row>
+    <row r="34" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="Q33" s="21"/>
-    </row>
-    <row r="34" ht="37" customHeight="1" spans="3:17">
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="P34" s="9" t="s">
+      <c r="Q34" s="20"/>
+    </row>
+    <row r="35" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Q34" s="20"/>
-    </row>
-    <row r="35" ht="37" customHeight="1" spans="3:17">
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M35" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P35" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="P35" s="9" t="s">
+      <c r="Q35" s="21"/>
+    </row>
+    <row r="36" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q35" s="21"/>
-    </row>
-    <row r="36" ht="37" customHeight="1" spans="3:17">
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="P36" s="9" t="s">
+      <c r="Q36" s="21"/>
+    </row>
+    <row r="37" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q36" s="21"/>
-    </row>
-    <row r="37" ht="37" customHeight="1" spans="3:17">
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M37" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="P37" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q37" s="21"/>
-    </row>
-    <row r="38" ht="37" customHeight="1" spans="3:17">
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="9"/>
@@ -3957,44 +3863,44 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="21"/>
     </row>
-    <row r="39" ht="37" customHeight="1" spans="3:17">
+    <row r="39" spans="3:17" ht="37.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M39" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="M39" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="N39" s="14"/>
       <c r="O39" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P39" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="P39" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="Q39" s="22"/>
     </row>
-    <row r="40" ht="14.25" spans="3:17">
+    <row r="40" spans="3:17" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -4011,7 +3917,7 @@
       <c r="P40" s="18"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" ht="14.25" spans="3:17">
+    <row r="41" spans="3:17" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -4028,7 +3934,7 @@
       <c r="P41" s="18"/>
       <c r="Q41" s="4"/>
     </row>
-    <row r="42" ht="14.25" spans="3:17">
+    <row r="42" spans="3:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -4045,476 +3951,1743 @@
       <c r="P42" s="18"/>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
+    <row r="43" spans="3:17" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C43" s="4"/>
       <c r="D43" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
+    <row r="44" spans="3:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C44" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P44" s="17" t="s">
         <v>36</v>
       </c>
       <c r="Q44" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C45" s="8">
-        <v>0.291666666666667</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="3:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C45" s="60" t="s">
+        <v>150</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="10">
-        <v>0.291666666666667</v>
+      <c r="F45" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10">
-        <v>0.291666666666667</v>
+        <v>147</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="K45" s="9"/>
-      <c r="L45" s="10">
-        <v>0.291666666666667</v>
+      <c r="L45" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="N45" s="9"/>
-      <c r="O45" s="10">
-        <v>0.291666666666667</v>
+        <v>147</v>
+      </c>
+      <c r="N45" s="12"/>
+      <c r="O45" s="58" t="s">
+        <v>150</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q45" s="20"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C46" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="N46" s="9"/>
-      <c r="O46" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="P46" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q46" s="20"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C47" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="12"/>
+        <v>147</v>
+      </c>
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="3:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C46" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J46" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="M46" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="N46" s="12"/>
+      <c r="O46" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="P46" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q46" s="61"/>
+    </row>
+    <row r="47" spans="3:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C47" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="9"/>
       <c r="F47" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H47" s="12"/>
+        <v>153</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="H47" s="9"/>
       <c r="I47" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="K47" s="12"/>
+        <v>153</v>
+      </c>
+      <c r="J47" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="K47" s="9"/>
       <c r="L47" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M47" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="P47" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q47" s="21"/>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C48" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>101</v>
+        <v>153</v>
+      </c>
+      <c r="M47" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="N47" s="9"/>
+      <c r="O47" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="P47" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q47" s="20"/>
+    </row>
+    <row r="48" spans="3:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C48" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="58" t="s">
+        <v>157</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H48" s="9"/>
+        <v>158</v>
+      </c>
+      <c r="G48" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="12"/>
       <c r="I48" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>101</v>
+        <v>158</v>
+      </c>
+      <c r="J48" s="58" t="s">
+        <v>157</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P48" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q48" s="20"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C49" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>103</v>
+        <v>158</v>
+      </c>
+      <c r="M48" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="N48" s="12"/>
+      <c r="O48" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="P48" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q48" s="21"/>
+    </row>
+    <row r="49" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C49" s="60"/>
+      <c r="D49" s="58" t="s">
+        <v>163</v>
       </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>133</v>
+      <c r="F49" s="62"/>
+      <c r="G49" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="58" t="s">
+        <v>165</v>
       </c>
       <c r="K49" s="9"/>
-      <c r="L49" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="L49" s="62"/>
+      <c r="M49" s="58"/>
       <c r="N49" s="12"/>
-      <c r="O49" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="O49" s="62"/>
+      <c r="P49" s="58"/>
       <c r="Q49" s="21"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C50" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>109</v>
+    <row r="50" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C50" s="11"/>
+      <c r="D50" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="58" t="s">
+        <v>163</v>
       </c>
       <c r="H50" s="12"/>
-      <c r="I50" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>103</v>
+      <c r="I50" s="12"/>
+      <c r="J50" s="59" t="s">
+        <v>163</v>
       </c>
       <c r="K50" s="9"/>
-      <c r="L50" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>112</v>
+      <c r="L50" s="9"/>
+      <c r="M50" s="59" t="s">
+        <v>151</v>
       </c>
       <c r="N50" s="12"/>
-      <c r="O50" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P50" s="9" t="s">
-        <v>112</v>
+      <c r="O50" s="12"/>
+      <c r="P50" s="59" t="s">
+        <v>151</v>
       </c>
       <c r="Q50" s="21"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C51" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>114</v>
+    <row r="51" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C51" s="11"/>
+      <c r="D51" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="59" t="s">
+        <v>161</v>
       </c>
       <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="M51" s="12" t="s">
-        <v>116</v>
+      <c r="I51" s="9"/>
+      <c r="J51" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="59" t="s">
+        <v>161</v>
       </c>
       <c r="N51" s="12"/>
-      <c r="O51" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="P51" s="12" t="s">
-        <v>116</v>
+      <c r="O51" s="12"/>
+      <c r="P51" s="59" t="s">
+        <v>161</v>
       </c>
       <c r="Q51" s="21"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C52" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="12" t="s">
+    <row r="52" spans="3:20" ht="79.150000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G52" s="12" t="s">
+      <c r="D52" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="21"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="37" customHeight="1" spans="3:17">
-      <c r="C53" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H53" s="14"/>
-      <c r="I53" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="M53" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="N53" s="14"/>
-      <c r="O53" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="P53" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q53" s="22"/>
-    </row>
-    <row r="54" ht="14" customHeight="1" spans="16:20">
+      <c r="G52" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J52" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M52" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="N52" s="14"/>
+      <c r="O52" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P52" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q52" s="22"/>
+    </row>
+    <row r="53" spans="3:20" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P53" s="1"/>
+      <c r="R53"/>
+      <c r="T53"/>
+    </row>
+    <row r="54" spans="3:20" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P54" s="1"/>
       <c r="R54"/>
       <c r="T54"/>
     </row>
-    <row r="55" ht="14" customHeight="1" spans="16:20">
-      <c r="P55" s="1"/>
-      <c r="R55"/>
-      <c r="T55"/>
-    </row>
-    <row r="56" customHeight="1" spans="16:20">
-      <c r="P56" s="1"/>
-      <c r="R56"/>
-      <c r="T56"/>
-    </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="18:20">
-      <c r="R57"/>
-      <c r="T57"/>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="18:20">
-      <c r="R58"/>
-      <c r="T58"/>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="18:20">
-      <c r="R59"/>
-      <c r="T59"/>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="18:20">
-      <c r="R60"/>
-      <c r="T60"/>
-    </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="18:20">
-      <c r="R61"/>
-      <c r="T61"/>
-    </row>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="18:20">
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-    </row>
-    <row r="63" s="1" customFormat="1" customHeight="1" spans="18:20">
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-    </row>
-    <row r="64" s="1" customFormat="1" customHeight="1" spans="18:20">
-      <c r="R64"/>
-      <c r="S64"/>
-      <c r="T64"/>
-    </row>
-    <row r="65" s="1" customFormat="1" customHeight="1" spans="18:20">
+    <row r="55" spans="3:20" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="4"/>
+      <c r="D55" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q55" s="5"/>
+    </row>
+    <row r="56" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C56" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P56" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q56" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C57" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="N57" s="12"/>
+      <c r="O57" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q57" s="21"/>
+    </row>
+    <row r="58" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C58" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J58" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="M58" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="N58" s="12"/>
+      <c r="O58" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="P58" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q58" s="61"/>
+    </row>
+    <row r="59" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C59" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J59" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M59" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="N59" s="9"/>
+      <c r="O59" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="P59" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q59" s="20"/>
+    </row>
+    <row r="60" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C60" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G60" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J60" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M60" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="N60" s="12"/>
+      <c r="O60" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="P60" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q60" s="21"/>
+    </row>
+    <row r="61" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C61" s="60"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="62"/>
+      <c r="O61" s="62"/>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="21"/>
+    </row>
+    <row r="62" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C62" s="11"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="N62" s="9"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q62" s="21"/>
+    </row>
+    <row r="63" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C63" s="11"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="21"/>
+    </row>
+    <row r="64" spans="3:20" ht="79.150000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G64" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J64" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M64" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P64" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q64" s="22"/>
+    </row>
+    <row r="65" spans="3:20" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P65" s="1"/>
       <c r="R65"/>
       <c r="S65"/>
       <c r="T65"/>
     </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="18:20">
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-    </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="18:20">
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
-    </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="16:16">
-      <c r="P68" s="2"/>
-    </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="16:16">
-      <c r="P69" s="2"/>
-    </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="16:16">
-      <c r="P70" s="2"/>
+    <row r="66" spans="3:20" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="3:20" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="4"/>
+      <c r="D67" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q67" s="5"/>
+    </row>
+    <row r="68" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C68" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P68" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q68" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C69" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="K69" s="9"/>
+      <c r="L69" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="N69" s="12"/>
+      <c r="O69" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="P69" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q69" s="21"/>
+    </row>
+    <row r="70" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C70" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G70" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J70" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="M70" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="N70" s="12"/>
+      <c r="O70" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="P70" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q70" s="61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C71" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G71" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="H71" s="9"/>
+      <c r="I71" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J71" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="K71" s="9"/>
+      <c r="L71" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M71" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="N71" s="9"/>
+      <c r="O71" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="P71" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q71" s="20"/>
+    </row>
+    <row r="72" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C72" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G72" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J72" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="K72" s="9"/>
+      <c r="L72" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M72" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="N72" s="12"/>
+      <c r="O72" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="P72" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q72" s="21"/>
+    </row>
+    <row r="73" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C73" s="60"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="62"/>
+      <c r="M73" s="58"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="62"/>
+      <c r="P73" s="58"/>
+      <c r="Q73" s="21"/>
+    </row>
+    <row r="74" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C74" s="11"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q74" s="21"/>
+    </row>
+    <row r="75" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C75" s="11"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="21"/>
+    </row>
+    <row r="76" spans="3:20" ht="79.150000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C76" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H76" s="14"/>
+      <c r="I76" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J76" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M76" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="N76" s="14"/>
+      <c r="O76" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P76" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q76" s="22"/>
+    </row>
+    <row r="79" spans="3:20" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="4"/>
+      <c r="D79" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q79" s="5"/>
+    </row>
+    <row r="80" spans="3:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C80" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N80" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P80" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q80" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C81" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="L81" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="N81" s="12"/>
+      <c r="O81" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q81" s="21"/>
+    </row>
+    <row r="82" spans="3:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C82" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G82" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J82" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="M82" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="N82" s="12"/>
+      <c r="O82" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="P82" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q82" s="61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="3:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C83" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G83" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="H83" s="9"/>
+      <c r="I83" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J83" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="K83" s="9"/>
+      <c r="L83" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M83" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="N83" s="9"/>
+      <c r="O83" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="P83" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q83" s="20"/>
+    </row>
+    <row r="84" spans="3:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C84" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G84" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J84" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="K84" s="9"/>
+      <c r="L84" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M84" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="N84" s="12"/>
+      <c r="O84" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="P84" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q84" s="21"/>
+    </row>
+    <row r="85" spans="3:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C85" s="60"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="62"/>
+      <c r="J85" s="58"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="62"/>
+      <c r="M85" s="58"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="62"/>
+      <c r="P85" s="58"/>
+      <c r="Q85" s="21"/>
+    </row>
+    <row r="86" spans="3:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C86" s="11"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q86" s="21"/>
+    </row>
+    <row r="87" spans="3:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C87" s="11"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="21"/>
+    </row>
+    <row r="88" spans="3:17" ht="79.150000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C88" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G88" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="H88" s="14"/>
+      <c r="I88" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J88" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M88" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="N88" s="14"/>
+      <c r="O88" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P88" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q88" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB54FDF5-94E6-4206-9607-87EBF2EA53A1}">
+  <dimension ref="B1:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" style="81" customWidth="1"/>
+    <col min="2" max="2" width="7.53125" style="81" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="81" customWidth="1"/>
+    <col min="4" max="4" width="5.59765625" style="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="81" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" style="81" customWidth="1"/>
+    <col min="7" max="7" width="5.59765625" style="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="81" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" style="81" customWidth="1"/>
+    <col min="10" max="10" width="5.59765625" style="81" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.9296875" style="81" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" style="81" customWidth="1"/>
+    <col min="13" max="13" width="5.59765625" style="81" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="81" customWidth="1"/>
+    <col min="15" max="15" width="10.19921875" style="81" customWidth="1"/>
+    <col min="16" max="16" width="5.59765625" style="81" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.06640625" style="81"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B1" s="86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:16" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="N3" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="P4" s="88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="P5" s="88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="P6" s="88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="O7" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="P7" s="88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B8" s="87"/>
+      <c r="C8" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="89"/>
+      <c r="F8" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="89"/>
+      <c r="I8" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="89"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="N8" s="89"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="87"/>
+      <c r="C9" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="P9" s="88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="87"/>
+      <c r="C10" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="79.150000000000006" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="N11" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" s="91" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>